--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C28AF-E430-4369-B398-7DC4BD7F02B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE674AB8-3348-4737-96E1-E6FFA7F96BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,99 +134,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비.옷</t>
+    <t>*$Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*$EquipmentOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션.마력회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션.마력회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프걸어주는아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts/Item/Active/buff.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts/Item/Active/sowrd.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts/Item/Inactive/sowrd.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른사람을소환하는아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scripts/Item/Active/call.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트를진행할수있는아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script/Item/Active/quest.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC로변신할수있는아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script/Item/Active/disguise.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*$Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*$EquipmentOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션.마력회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션.마력회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프걸어주는아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Item/Active/buff.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Item/Active/sowrd.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Item/Inactive/sowrd.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른사람을소환하는아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Item/Active/call.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트를진행할수있는아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script/Item/Active/quest.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC로변신할수있는아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script/Item/Active/disguise.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -697,54 +693,54 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -756,14 +752,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8516D92A-B092-433E-9263-C624C8780FD8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -786,7 +783,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -837,24 +834,59 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
         <v>10000</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>5000</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -863,7 +895,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,21 +911,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -986,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42659EF1-621E-40DC-A780-D5B8ECEC2996}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,15 +1032,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1041,7 +1073,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE674AB8-3348-4737-96E1-E6FFA7F96BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6660F-2177-4E81-81F2-B3279BB7D2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="EquipmentOption" sheetId="3" r:id="rId2"/>
     <sheet name="WeaponOption" sheetId="4" r:id="rId3"/>
     <sheet name="ConsumeOption" sheetId="5" r:id="rId4"/>
+    <sheet name="WeaponRange" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,22 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션.체력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActiveScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*$Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션.마력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scripts/Item/Active/call.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,7 +199,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갑옷</t>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +619,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,10 +640,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,75 +701,75 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +784,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -778,15 +807,15 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -820,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -837,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -854,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -868,10 +897,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -892,60 +921,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ABB6F0-15CB-48A5-9891-9CCB2086DBAC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -956,61 +992,74 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
         <v>100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
         <v>1000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1018,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42659EF1-621E-40DC-A780-D5B8ECEC2996}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1032,15 +1081,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1062,7 +1111,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1073,13 +1122,99 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D257A7C8-45EC-4223-A3CF-5F74E2D985F2}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6660F-2177-4E81-81F2-B3279BB7D2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5F48C-DEEA-474E-BD6E-2899795C80A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="EquipmentOption" sheetId="3" r:id="rId2"/>
-    <sheet name="WeaponOption" sheetId="4" r:id="rId3"/>
-    <sheet name="ConsumeOption" sheetId="5" r:id="rId4"/>
-    <sheet name="WeaponRange" sheetId="6" r:id="rId5"/>
+    <sheet name="Item.Weapon" sheetId="1" r:id="rId1"/>
+    <sheet name="Item.Consume" sheetId="7" r:id="rId2"/>
+    <sheet name="Item.Other" sheetId="8" r:id="rId3"/>
+    <sheet name="EquipmentOption" sheetId="3" r:id="rId4"/>
+    <sheet name="WeaponOption" sheetId="4" r:id="rId5"/>
+    <sheet name="ConsumeOption" sheetId="5" r:id="rId6"/>
+    <sheet name="WeaponRange" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +254,26 @@
   </si>
   <si>
     <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,7 +654,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -645,8 +667,14 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -659,8 +687,14 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -673,8 +707,14 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -687,89 +727,53 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -780,6 +784,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BF8A14-CD38-4E49-A323-903BBCDE4487}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A096-61EB-4E59-9A13-FC72C18814D6}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8516D92A-B092-433E-9263-C624C8780FD8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -919,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ABB6F0-15CB-48A5-9891-9CCB2086DBAC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1063,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42659EF1-621E-40DC-A780-D5B8ECEC2996}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1138,11 +1407,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D257A7C8-45EC-4223-A3CF-5F74E2D985F2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5F48C-DEEA-474E-BD6E-2899795C80A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B1CE2-06BD-4322-80FB-090317C7DED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item.Weapon" sheetId="1" r:id="rId1"/>
+    <sheet name="Item.Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Item.Consume" sheetId="7" r:id="rId2"/>
     <sheet name="Item.Other" sheetId="8" r:id="rId3"/>
     <sheet name="EquipmentOption" sheetId="3" r:id="rId4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션.마력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,11 +261,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
+    <t>기본신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +650,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -667,14 +663,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -687,14 +677,8 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -707,73 +691,51 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BF8A14-CD38-4E49-A323-903BBCDE4487}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,7 +763,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -814,14 +776,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -834,14 +790,8 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -854,39 +804,21 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -898,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A096-61EB-4E59-9A13-FC72C18814D6}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,7 +846,7 @@
     <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -927,14 +859,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,14 +873,8 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -967,79 +887,49 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8516D92A-B092-433E-9263-C624C8780FD8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1135,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1152,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1169,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -1179,6 +1069,23 @@
       </c>
       <c r="E7">
         <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -1230,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1250,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1270,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -1290,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1310,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1336,13 +1243,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42659EF1-621E-40DC-A780-D5B8ECEC2996}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,7 +1300,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1422,18 +1331,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1455,7 +1364,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1466,7 +1375,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1477,7 +1386,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B1CE2-06BD-4322-80FB-090317C7DED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A3D735-9272-4406-9B8A-CE7377A33D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Item.Equipment" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>Shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,23 +646,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -658,13 +671,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,13 +688,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -686,27 +705,30 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -714,7 +736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -722,7 +744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -730,7 +752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -747,23 +769,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BF8A14-CD38-4E49-A323-903BBCDE4487}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -771,13 +794,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -785,13 +811,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -799,26 +828,35 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -830,23 +868,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E805A096-61EB-4E59-9A13-FC72C18814D6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -854,13 +893,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -868,13 +910,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -882,53 +927,68 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1243,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42659EF1-621E-40DC-A780-D5B8ECEC2996}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A3D735-9272-4406-9B8A-CE7377A33D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608A4CE-2B50-4509-8096-B9C2A16CDF16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Item.Equipment" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1157,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ABB6F0-15CB-48A5-9891-9CCB2086DBAC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1168,11 +1180,12 @@
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1186,13 +1199,16 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1206,13 +1222,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1226,13 +1245,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1246,13 +1268,16 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1266,13 +1291,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1286,9 +1314,12 @@
         <v>10000</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608A4CE-2B50-4509-8096-B9C2A16CDF16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF3D3E-B60E-42AD-821C-E496366EC100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,18 +45,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장비.옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,22 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PhysicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션.마력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,15 +257,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기.검.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기.활.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기.지팡이.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비.옷.스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본신발.스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,16 +672,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,62 +706,62 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -803,16 +795,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,16 +812,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -840,21 +832,21 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -862,10 +854,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -902,16 +894,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,16 +911,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -939,69 +931,69 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1012,53 +1004,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8516D92A-B092-433E-9263-C624C8780FD8}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1066,98 +1047,62 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1169,158 +1114,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ABB6F0-15CB-48A5-9891-9CCB2086DBAC}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1350,21 +1201,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,7 +1231,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1391,7 +1242,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1422,24 +1273,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1455,7 +1306,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1466,7 +1317,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1477,7 +1328,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/design/Item.xlsx
+++ b/design/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF3D3E-B60E-42AD-821C-E496366EC100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1DC96F-0D2D-4EBB-9E99-0948C4A8E256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="6" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Item.Equipment" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ABB6F0-15CB-48A5-9891-9CCB2086DBAC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D257A7C8-45EC-4223-A3CF-5F74E2D985F2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
         <v>1</v>
